--- a/basicchangepassword.xlsx
+++ b/basicchangepassword.xlsx
@@ -601,17 +601,17 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F49"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" customWidth="1"/>
-    <col min="4" max="4" width="54.140625" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" customWidth="1"/>
-    <col min="6" max="6" width="55.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
